--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -540,40 +540,40 @@
         <v>41.389792</v>
       </c>
       <c r="I2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J2">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>58.22524625743644</v>
+        <v>51.77776520523377</v>
       </c>
       <c r="R2">
-        <v>524.0272163169279</v>
+        <v>465.9998868471039</v>
       </c>
       <c r="S2">
-        <v>0.6392747865402751</v>
+        <v>0.6424666772742331</v>
       </c>
       <c r="T2">
-        <v>0.6392747865402751</v>
+        <v>0.6424666772742331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>41.389792</v>
       </c>
       <c r="I3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J3">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
         <v>17.88656642073956</v>
@@ -632,10 +632,10 @@
         <v>160.979097786656</v>
       </c>
       <c r="S3">
-        <v>0.1963826976360163</v>
+        <v>0.221939337293295</v>
       </c>
       <c r="T3">
-        <v>0.1963826976360163</v>
+        <v>0.2219393372932951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>41.389792</v>
       </c>
       <c r="I4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="J4">
-        <v>0.9485830781324925</v>
+        <v>0.9371385197543067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>10.285280532416</v>
+        <v>5.861668331697778</v>
       </c>
       <c r="R4">
-        <v>92.56752479174401</v>
+        <v>52.75501498528001</v>
       </c>
       <c r="S4">
-        <v>0.1129255939562011</v>
+        <v>0.07273250518677857</v>
       </c>
       <c r="T4">
-        <v>0.1129255939562011</v>
+        <v>0.07273250518677858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H5">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I5">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J5">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>3.156036626152888</v>
+        <v>3.473154604154222</v>
       </c>
       <c r="R5">
-        <v>28.404329635376</v>
+        <v>31.258391437388</v>
       </c>
       <c r="S5">
-        <v>0.03465119978328124</v>
+        <v>0.04309545012895064</v>
       </c>
       <c r="T5">
-        <v>0.03465119978328124</v>
+        <v>0.04309545012895064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H6">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I6">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J6">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
-        <v>0.969522026414111</v>
+        <v>1.199797060967444</v>
       </c>
       <c r="R6">
-        <v>8.725698237727</v>
+        <v>10.798173548707</v>
       </c>
       <c r="S6">
-        <v>0.01064471215358436</v>
+        <v>0.01488727116954109</v>
       </c>
       <c r="T6">
-        <v>0.01064471215358436</v>
+        <v>0.01488727116954109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7478296666666666</v>
+        <v>0.9254496666666667</v>
       </c>
       <c r="H7">
-        <v>2.243489</v>
+        <v>2.776349</v>
       </c>
       <c r="I7">
-        <v>0.05141692186750751</v>
+        <v>0.0628614802456932</v>
       </c>
       <c r="J7">
-        <v>0.05141692186750751</v>
+        <v>0.06286148024569319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>0.557502529522</v>
+        <v>0.3931896302122223</v>
       </c>
       <c r="R7">
-        <v>5.017522765698</v>
+        <v>3.53870667191</v>
       </c>
       <c r="S7">
-        <v>0.006121009930641925</v>
+        <v>0.004878758947201463</v>
       </c>
       <c r="T7">
-        <v>0.006121009930641925</v>
+        <v>0.004878758947201463</v>
       </c>
     </row>
   </sheetData>
